--- a/InterviewQuestions.xlsx
+++ b/InterviewQuestions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -77,13 +77,16 @@
   </si>
   <si>
     <t>A web app has grid and it is taking more data from db. How to implement pagination?</t>
+  </si>
+  <si>
+    <t>Security in web application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +169,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -212,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,9 +255,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,6 +290,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,22 +466,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -479,7 +492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -488,7 +501,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="27">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -497,7 +510,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -506,7 +519,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -515,7 +528,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="27">
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -524,7 +537,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -533,7 +546,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -542,7 +555,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -551,7 +564,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -560,7 +573,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -569,7 +582,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="27">
+    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -578,7 +591,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -587,7 +600,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -596,7 +609,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -605,7 +618,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -614,7 +627,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="27">
+    <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -623,7 +636,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -632,7 +645,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="27">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -641,28 +654,30 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>

--- a/InterviewQuestions.xlsx
+++ b/InterviewQuestions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Question</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Security in web application</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -667,7 +670,9 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
